--- a/pred_ohlcv/54_21/2020-01-23 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 IPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-45830.82510806901</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-56274.95720806901</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-55575.17750806901</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-54175.61810806901</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-56974.73690806901</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-59792.94210806901</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-58393.38270806901</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-53500.14700806901</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-59176.09710806901</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-59176.09710806901</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-57016.75800806902</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-49423.99520806901</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-37309.95880806902</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-35850.39940806902</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-32351.28060806902</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-22642.00310806902</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-33688.22780806902</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-41630.68860806902</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-42330.46830806902</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-42330.46830806902</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-45617.75500806901</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>226.1177919309848</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3762.818991930985</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>5862.158091930985</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-55726.67940806902</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-52927.56080806901</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-188323.337908069</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-196720.693808069</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-197420.473408069</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-190263.740408069</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-188074.075308069</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-253611.353308069</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-253611.353408069</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-253611.353408069</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-255010.912608069</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-255010.912608069</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-253611.353208069</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-257273.460008069</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-448757.1279757174</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-445319.4198757174</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-448818.3181757174</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-448118.5385757174</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-448118.5385757174</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-442441.8341757174</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-497152.5857757175</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-497852.3653757175</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-401197.0070757174</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-406239.3953757174</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-469582.8419757175</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-457469.9979757175</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-461701.4826757174</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-485721.5940757174</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-529725.3483757174</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-529725.3483757174</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-529025.5687757174</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-534078.8514757174</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-534778.6310757174</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-533379.0718757174</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-543056.9660757174</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-543756.7456757174</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-540159.1304757174</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-542958.2490757174</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-539964.4124757174</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-539964.4124757174</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-544153.8802757174</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-544853.6598757174</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-545553.4394757174</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-545553.4394757174</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-549052.3377757174</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-548348.4595757173</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-541959.6105757173</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-541959.6105757173</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-544070.5319757173</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-541971.1930757173</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-541971.1930757173</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-544070.5319757173</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-546234.0359757172</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-551627.6966757172</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-553727.0355757172</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-571975.5611757172</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-569176.4426757172</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-661251.2329757169</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-685233.2527757169</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-660502.2713757169</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-658382.4636757169</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-658382.4636757169</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-662631.4530757169</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-664730.7919757168</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-661915.8202757168</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-652198.8998757169</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-650799.3406757169</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-636579.4423757169</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-638795.3568757169</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-638795.3568757169</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-638795.3568757169</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-634589.3906757169</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-637388.509275717</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-634589.3906757169</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-641357.6528757169</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-634767.7821570319</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-787300.1400570319</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-794710.6306570319</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-793311.0714570319</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-783285.6315570319</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-779774.2795570319</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-779774.2795570319</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-781873.6184570319</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-779074.4999570319</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-785707.5519570318</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-782908.4333570318</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-782908.4333570318</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-778694.1216570318</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-778694.1216570318</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-780793.4606570319</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-784836.8360570319</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-876982.9535570319</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-888520.0605570319</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-892072.3656570319</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-892072.3656570319</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-892072.3656570319</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-883606.6977570321</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-896538.5083570321</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-897238.2879570321</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-895056.3069570321</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-896455.866257032</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-896455.866257032</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-893621.454057032</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-890822.335457032</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-886577.3958570319</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-884468.0568570319</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-871680.6828570319</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-873801.846957032</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-871702.508057032</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-873815.704557032</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-871669.3934570319</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-875168.2917570319</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-870873.184957032</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-867272.492457032</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-878634.924457032</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-878634.924457032</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-879334.704057032</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-874375.138357032</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-874375.138357032</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-875074.917957032</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-875074.917957032</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-870818.513457032</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-874392.489357032</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-871593.645757032</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-874397.8080570319</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-873698.0284570319</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-873698.0284570319</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-874514.291457032</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-871022.000757032</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-871022.000757032</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-871022.000757032</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-863682.845657032</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-867462.3197545069</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-868870.8789545069</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-866717.2927545069</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-874556.876954507</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-870335.270151982</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-870335.270151982</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-865393.6171519819</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-906846.1210519819</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-939306.514849457</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-942515.3842494569</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-925442.4343494569</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-927536.0863494569</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-926836.3067494569</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-928955.862849457</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-928955.862849457</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-928955.862849457</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-923261.9024494569</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-921862.3431494569</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-925361.2414494569</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-924661.4618494569</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-928860.1398494568</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-930959.4787494568</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-935409.5995494568</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-938258.5746494569</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-935910.0318494568</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-938749.8420494568</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-938749.8420494568</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-921633.9969494567</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-921633.9969494567</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-919457.4740494568</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-921617.8465494568</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-921617.8465494568</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-921617.8465494568</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-918818.7279494568</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-920984.2996494567</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-920984.2996494567</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-920984.2996494567</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-909453.2108494567</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-902822.8568494567</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-902822.8568494567</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-885573.3667494566</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-885573.3667494566</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-884173.8074494567</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-886474.0278494566</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-888567.3094494566</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-887167.7501494567</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-884368.6315494566</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-865592.3058494566</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-902378.8161743006</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-900979.2569743006</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-900979.2569743006</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-907680.0537743006</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-899008.1122743007</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-902606.8779743006</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-824788.4785743007</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-822526.4162743007</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-827680.7356743007</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-827680.7356743007</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-827680.7356743007</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-839214.7277743007</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-837652.4451743007</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-837662.0097743007</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-844669.3054743008</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-844669.3054743008</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-846768.6444743008</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-878047.8590743007</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-863540.4185743007</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-862810.6389743007</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-864210.1981743007</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-866310.3982743007</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-886998.5137743007</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-886998.5137743007</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-891322.7630743007</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-897340.3220743007</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-895160.3744743008</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-892349.6672743008</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-895959.6856743008</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-910096.9338743008</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-907987.5949743008</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-908707.3745743008</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-905908.2559743008</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-920567.7585743008</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-945441.9102743008</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-942601.4751743008</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-942601.4751743008</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-942601.4751743008</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-829933.4339743009</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-864357.1175743008</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-862169.6465743008</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-864856.5857743009</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-860544.4459743008</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-860544.4459743008</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-860544.4459743008</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-861244.2255743009</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-861944.0051743009</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-1749897.400465332</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-1750597.180065332</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-1750597.180065332</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-1762717.739365332</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-1838995.905965332</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-1838995.905965332</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-1902028.207365332</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-1894338.451265332</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-1896437.790165332</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-1806402.049365332</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-1822930.181165332</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-1840136.406065332</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-1835819.009865331</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-1832255.891565331</v>
       </c>
       <c r="H1311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-1827357.553565331</v>
       </c>
       <c r="H1312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-1827357.553565331</v>
       </c>
       <c r="H1313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-1830862.043765331</v>
       </c>
       <c r="H1314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-1830862.043765331</v>
       </c>
       <c r="H1315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-1826601.770465331</v>
       </c>
       <c r="H1316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-1826601.770465331</v>
       </c>
       <c r="H1317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-1816199.068665331</v>
       </c>
       <c r="H1318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-1814799.509465331</v>
       </c>
       <c r="H1319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-1812702.280065331</v>
       </c>
       <c r="H1320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-1814259.766265331</v>
       </c>
       <c r="H1321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-1809408.175365331</v>
       </c>
       <c r="H1322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-1808160.605628807</v>
       </c>
       <c r="H1323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-1762074.280428807</v>
       </c>
       <c r="H1328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>-1772161.364628807</v>
       </c>
       <c r="H1344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35596,7 +35596,7 @@
         <v>-1820744.573128806</v>
       </c>
       <c r="H1354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355" spans="1:8">
@@ -35622,7 +35622,7 @@
         <v>-1810708.739028806</v>
       </c>
       <c r="H1355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 IPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-45830.82510806901</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-56274.95720806901</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-55575.17750806901</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-54175.61810806901</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-56974.73690806901</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-59792.94210806901</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-58393.38270806901</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-53500.14700806901</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-59176.09710806901</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-59176.09710806901</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-57016.75800806902</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-49423.99520806901</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-37309.95880806902</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-35850.39940806902</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-32351.28060806902</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-22642.00310806902</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-33688.22780806902</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-41630.68860806902</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-42330.46830806902</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-42330.46830806902</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-45617.75500806901</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>226.1177919309848</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3762.818991930985</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>5862.158091930985</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-55726.67940806902</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-52927.56080806901</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-188323.337908069</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-196720.693808069</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-197420.473408069</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-193117.858108069</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-448757.1279757174</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-445319.4198757174</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-448818.3181757174</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-448118.5385757174</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-448118.5385757174</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-442441.8341757174</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-497152.5857757175</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-497852.3653757175</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-453005.5469757174</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-392596.9036757174</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-401197.0070757174</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-406239.3953757174</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-469582.8419757175</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-457469.9979757175</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-461701.4826757174</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-482922.4754757175</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-485721.5940757174</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-529725.3483757174</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-529725.3483757174</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-529025.5687757174</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-534078.8514757174</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-534778.6310757174</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-533379.0718757174</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-543056.9660757174</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-543756.7456757174</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-540159.1304757174</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-542958.2490757174</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-539964.4124757174</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-539964.4124757174</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-544153.8802757174</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-544853.6598757174</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-545553.4394757174</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-545553.4394757174</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-549052.3377757174</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-547652.7785757174</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-551847.3578757173</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-548348.4595757173</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-541959.6105757173</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-541959.6105757173</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-544070.5319757173</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-541971.1930757173</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-541971.1930757173</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-544070.5319757173</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-546234.0359757172</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-551627.6966757172</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-553727.0355757172</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-571975.5611757172</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-569176.4426757172</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-564972.5090757172</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-571409.4090757172</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-569310.0701757172</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-571419.8742757172</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-571419.8742757172</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-569269.9057757172</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-572151.7574757172</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-572151.7574757172</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-569966.3886757172</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-573540.8677757172</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-577919.0115757171</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-573724.3296757172</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-571585.7283757172</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-576592.7374757172</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-572311.3473757172</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-506658.7778757172</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-509509.7761757172</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-508050.4334757171</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-508750.2130757172</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-510079.6013757171</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-513663.9216757172</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-516463.0402757172</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-514363.7013757172</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-512166.7161757172</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-514266.0551757172</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-517065.1735757171</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-476905.2204757171</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-476205.4408757171</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-478304.7798757171</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-476205.4409757171</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-483410.0465757171</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-483410.0465757171</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-486228.3075757171</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-482679.8319757171</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-482679.8319757171</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-485586.0069757171</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-506000.4953757171</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-661251.2329757169</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-685233.2527757169</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-660502.2713757169</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-658382.4636757169</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-658382.4636757169</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-662631.4530757169</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-664730.7919757168</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-661915.8202757168</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-652198.8998757169</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-650799.3406757169</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-636579.4423757169</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-638795.3568757169</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-638795.3568757169</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-638795.3568757169</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-634589.3906757169</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-637388.509275717</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-634589.3906757169</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-641357.6528757169</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-634767.7821570319</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-787300.1400570319</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-794710.6306570319</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-793311.0714570319</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-783285.6315570319</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-779774.2795570319</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-779774.2795570319</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-781873.6184570319</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-779074.4999570319</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-785707.5519570318</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-782908.4333570318</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-782908.4333570318</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-778694.1216570318</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-778694.1216570318</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-780793.4606570319</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-784836.8360570319</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-876982.9535570319</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-888520.0605570319</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-892072.3656570319</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-892072.3656570319</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-892072.3656570319</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-883606.6977570321</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-896538.5083570321</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-897238.2879570321</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-895056.3069570321</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-896455.866257032</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-896455.866257032</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-893621.454057032</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-890822.335457032</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-886577.3958570319</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-884468.0568570319</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-871680.6828570319</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-873801.846957032</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-871702.508057032</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-873815.704557032</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-871669.3934570319</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-875168.2917570319</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-870873.184957032</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-867272.492457032</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-878634.924457032</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-878634.924457032</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-879334.704057032</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-874375.138357032</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-874375.138357032</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-875074.917957032</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-875074.917957032</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-870818.513457032</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-874392.489357032</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-871593.645757032</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-874397.8080570319</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-873698.0284570319</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-873698.0284570319</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-874514.291457032</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-871022.000757032</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-871022.000757032</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-871022.000757032</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-863682.845657032</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-867462.3197545069</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-868870.8789545069</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-866717.2927545069</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-874556.876954507</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-870335.270151982</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-870335.270151982</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-865393.6171519819</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-906846.1210519819</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-939306.514849457</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-942515.3842494569</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-925442.4343494569</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-927536.0863494569</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-926836.3067494569</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-928955.862849457</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-928955.862849457</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-928955.862849457</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-923261.9024494569</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-921862.3431494569</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-925361.2414494569</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-924661.4618494569</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-928860.1398494568</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-930959.4787494568</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-935409.5995494568</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-938258.5746494569</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-935910.0318494568</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-938749.8420494568</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-938749.8420494568</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-921633.9969494567</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-921633.9969494567</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-919457.4740494568</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-921617.8465494568</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-921617.8465494568</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-921617.8465494568</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-918818.7279494568</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-920984.2996494567</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-920984.2996494567</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-920984.2996494567</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-909453.2108494567</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-902822.8568494567</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-902822.8568494567</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-885573.3667494566</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-885573.3667494566</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-884173.8074494567</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-886474.0278494566</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-888567.3094494566</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-887167.7501494567</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-884368.6315494566</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-865592.3058494566</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-902378.8161743006</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-900979.2569743006</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-900979.2569743006</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-907680.0537743006</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-899008.1122743007</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-902606.8779743006</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-824788.4785743007</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-822526.4162743007</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-827680.7356743007</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-827680.7356743007</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-827680.7356743007</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-839214.7277743007</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-837652.4451743007</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-837662.0097743007</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-844669.3054743008</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-844669.3054743008</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-846768.6444743008</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-878047.8590743007</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-863540.4185743007</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-862810.6389743007</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-864210.1981743007</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-866310.3982743007</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-886998.5137743007</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-886998.5137743007</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-891322.7630743007</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-897340.3220743007</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-895160.3744743008</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-892349.6672743008</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-895959.6856743008</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-910096.9338743008</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-907987.5949743008</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-908707.3745743008</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-905908.2559743008</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-920567.7585743008</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-945441.9102743008</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-942601.4751743008</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-942601.4751743008</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-942601.4751743008</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-829933.4339743009</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-864357.1175743008</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-862169.6465743008</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-864856.5857743009</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-860544.4459743008</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-860544.4459743008</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-860544.4459743008</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-861244.2255743009</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-861944.0051743009</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-1749897.400465332</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-1750597.180065332</v>
       </c>
       <c r="H1236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-1750597.180065332</v>
       </c>
       <c r="H1237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-1762717.739365332</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-1838995.905965332</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-1838995.905965332</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-1902028.207365332</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-1894338.451265332</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-1896437.790165332</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-1896437.790165332</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-1896437.790165332</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-1858595.973465332</v>
       </c>
       <c r="H1246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-1854696.414265332</v>
       </c>
       <c r="H1247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-1854696.414265332</v>
       </c>
       <c r="H1248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-1806402.049365332</v>
       </c>
       <c r="H1276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-1822930.181165332</v>
       </c>
       <c r="H1300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-1840136.406065332</v>
       </c>
       <c r="H1301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-1835819.009865331</v>
       </c>
       <c r="H1302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-1830862.043765331</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-1814259.766265331</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-1762074.280428807</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -35596,7 +35596,7 @@
         <v>-1820744.573128806</v>
       </c>
       <c r="H1354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355" spans="1:8">
